--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Case ID</t>
   </si>
@@ -119,22 +119,16 @@
     <t>su</t>
   </si>
   <si>
-    <t>Data Set</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>TC001功能测试</t>
-  </si>
-  <si>
-    <t>TC001性能测试</t>
-  </si>
-  <si>
-    <t>TC002自动化测试</t>
+    <t>软件测试技术</t>
+  </si>
+  <si>
+    <t>前端开发技术</t>
   </si>
 </sst>
 </file>
@@ -143,8 +137,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -175,19 +169,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,7 +227,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -220,9 +244,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,29 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -274,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,26 +283,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -331,13 +326,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,169 +446,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,26 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,11 +602,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,7 +635,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,127 +656,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,8 +791,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1148,7 +1143,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1281,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1319,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1447,121 +1442,77 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:4">
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:4">
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="3" r:id="rId1"/>
-    <sheet name="TestSteps" sheetId="4" r:id="rId2"/>
-    <sheet name="PageObject" sheetId="2" r:id="rId3"/>
-    <sheet name="Locators" sheetId="1" r:id="rId4"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSteps" sheetId="2" r:id="rId2"/>
+    <sheet name="PageObject" sheetId="3" r:id="rId3"/>
+    <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Case ID</t>
   </si>
@@ -119,16 +119,22 @@
     <t>su</t>
   </si>
   <si>
+    <t>Data Set</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>软件测试技术</t>
-  </si>
-  <si>
-    <t>前端开发技术</t>
+    <t>TC001功能测试</t>
+  </si>
+  <si>
+    <t>TC001性能测试</t>
+  </si>
+  <si>
+    <t>TC002自动化测试</t>
   </si>
 </sst>
 </file>
@@ -136,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -169,58 +175,80 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,35 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,8 +278,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,16 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,32 +536,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +582,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -626,157 +629,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,14 +790,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1143,7 +1148,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1152,7 +1157,7 @@
     <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
+    <row r="3" ht="15.75" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:3">
+    <row r="4" ht="15.75" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1201,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F4 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1214,7 +1219,7 @@
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1282,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1289,7 +1294,7 @@
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1314,14 +1319,14 @@
         <v>17</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1358,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1396,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:4">
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1442,77 +1447,121 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Case ID</t>
   </si>
@@ -77,28 +77,37 @@
     <t>url</t>
   </si>
   <si>
+    <t>highlight_search</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>highlight_element</t>
+  </si>
+  <si>
     <t>enter_search</t>
   </si>
   <si>
-    <t>SearchBox</t>
-  </si>
-  <si>
     <t>send_keys</t>
   </si>
   <si>
     <t>search_term</t>
   </si>
   <si>
+    <t>highlight_search_button</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
     <t>click_search</t>
   </si>
   <si>
-    <t>SearchButton</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
-    <t>open_url,enter_search,click_search</t>
+    <t>open_url,highlight_search,enter_search,highlight_search_button,click_search</t>
   </si>
   <si>
     <t>Locator Type</t>
@@ -142,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -181,21 +190,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +208,29 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -224,29 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -262,6 +280,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -278,14 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -293,24 +318,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,50 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,22 +583,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +628,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -661,127 +670,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1215,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F4 F3"/>
     </sheetView>
   </sheetViews>
@@ -1279,16 +1288,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
@@ -1339,37 +1348,67 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1404,10 +1443,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1418,10 +1457,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1429,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1465,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1485,7 +1524,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1496,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1513,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1524,10 +1563,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1541,7 +1580,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1552,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Case ID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Page Name</t>
   </si>
   <si>
-    <t>Method Name</t>
+    <t>Module Name</t>
   </si>
   <si>
     <t>Parameter Name</t>
@@ -71,43 +71,31 @@
     <t>Actions</t>
   </si>
   <si>
+    <t>Search</t>
+  </si>
+  <si>
     <t>open_url</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>highlight_search</t>
-  </si>
-  <si>
     <t>SearchBox</t>
   </si>
   <si>
     <t>highlight_element</t>
   </si>
   <si>
-    <t>enter_search</t>
-  </si>
-  <si>
     <t>send_keys</t>
   </si>
   <si>
     <t>search_term</t>
   </si>
   <si>
-    <t>highlight_search_button</t>
-  </si>
-  <si>
     <t>SearchButton</t>
   </si>
   <si>
-    <t>click_search</t>
-  </si>
-  <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>open_url,highlight_search,enter_search,highlight_search_button,click_search</t>
   </si>
   <si>
     <t>Locator Type</t>
@@ -152,9 +140,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,14 +178,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -205,22 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,44 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,39 +276,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,25 +328,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +466,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +537,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,6 +587,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,65 +629,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -649,7 +637,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -670,127 +658,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1145,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1216,7 +1204,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F4 F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1291,7 +1279,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1329,10 +1317,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1340,7 +1328,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1355,16 +1343,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1372,10 +1360,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1387,30 +1375,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1424,7 +1404,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1443,10 +1423,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1457,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1468,13 +1448,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1504,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1521,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1535,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1549,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1563,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1577,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1591,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="TestSteps" sheetId="2" r:id="rId2"/>
-    <sheet name="PageObject" sheetId="3" r:id="rId3"/>
+    <sheet name="PageModules" sheetId="3" r:id="rId3"/>
     <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Case ID</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Baidu</t>
   </si>
   <si>
-    <t>search</t>
+    <t>Search</t>
   </si>
   <si>
     <t>url,search_term</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Actions</t>
-  </si>
-  <si>
-    <t>Search</t>
   </si>
   <si>
     <t>open_url</t>
@@ -139,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,6 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -191,13 +196,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -205,11 +227,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,93 +243,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,12 +325,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,85 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,61 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,12 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +530,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +573,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,175 +631,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1145,10 @@
       <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="33.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
@@ -1204,15 +1201,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1279,16 +1276,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1313,14 +1310,14 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1328,13 +1325,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1343,16 +1340,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1360,13 +1357,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1375,13 +1372,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1407,11 +1404,11 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1423,10 +1420,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1434,13 +1431,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1448,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1472,11 +1469,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1484,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1501,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1515,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1529,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1543,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1557,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1571,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Case ID</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
   </si>
   <si>
     <t>Run</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -36,6 +42,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>tag1</t>
   </si>
   <si>
     <t>TC002</t>
@@ -136,12 +145,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +184,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,44 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,57 +282,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,187 +340,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF212121"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,30 +652,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -655,131 +676,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,6 +812,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,19 +1167,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
-    <col min="2" max="2" width="33.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:3">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,33 +1191,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,15 +1244,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,50 +1261,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1275,110 +1318,110 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1404,54 +1447,54 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1512,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1481,97 +1524,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -146,9 +146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -203,24 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,10 +226,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,69 +304,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +346,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,7 +382,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,43 +478,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,115 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +555,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,15 +625,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,65 +647,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -676,127 +676,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Case ID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
   </si>
   <si>
     <t>open_url</t>
@@ -145,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -190,6 +193,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -197,22 +215,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,53 +269,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,17 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +323,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +349,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,145 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,20 +558,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,17 +603,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,32 +638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,7 +658,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -676,131 +679,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -814,10 +817,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,7 +1187,7 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1211,7 +1220,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1228,7 +1237,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1316,22 +1325,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,8 +1357,11 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1357,13 +1370,14 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1371,14 +1385,15 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1386,16 +1401,17 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1403,14 +1419,15 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1418,19 +1435,23 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,7 +1464,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1463,10 +1484,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1474,13 +1495,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1488,13 +1509,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1524,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1541,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1555,10 +1576,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1569,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1583,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1597,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1611,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -192,60 +192,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,46 +277,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,31 +349,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,151 +475,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,36 +559,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -599,21 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +593,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -655,10 +640,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -679,127 +679,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1252,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1327,8 +1327,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1454,6 +1454,11 @@
       <c r="F7" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>Locators!$B$2:$B$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1465,7 +1470,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1530,7 +1535,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9144" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>Case ID</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>url,search_term</t>
+    <t>url,search_term,expected_title</t>
   </si>
   <si>
     <t>Element Name</t>
@@ -107,6 +107,12 @@
     <t>click</t>
   </si>
   <si>
+    <t>title_should_contains</t>
+  </si>
+  <si>
+    <t>expected_title</t>
+  </si>
+  <si>
     <t>Locator Type</t>
   </si>
   <si>
@@ -137,10 +143,16 @@
     <t>TC001功能测试</t>
   </si>
   <si>
+    <t>百度搜索</t>
+  </si>
+  <si>
     <t>TC001性能测试</t>
   </si>
   <si>
     <t>TC002自动化测试</t>
+  </si>
+  <si>
+    <t>百度2</t>
   </si>
 </sst>
 </file>
@@ -148,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -192,6 +204,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -200,44 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,88 +339,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -349,19 +361,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,127 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +570,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,66 +637,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +656,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -679,127 +691,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,12 +1194,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="33.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="5.57407407407407" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1252,16 +1264,16 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1328,17 +1340,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="11.287037037037" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -1446,16 +1458,24 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
       <formula1>Locators!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1473,11 +1493,11 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1489,10 +1509,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1503,10 +1523,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1517,10 +1537,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1532,17 +1552,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1550,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1570,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1584,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1592,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1609,44 +1629,86 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="PageModules" sheetId="3" r:id="rId3"/>
     <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
+    <sheet name="WebEnvironments" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>Case ID</t>
   </si>
@@ -153,6 +154,80 @@
   </si>
   <si>
     <t>百度2</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>IsRemote</t>
+  </si>
+  <si>
+    <t>RemoteURL</t>
+  </si>
+  <si>
+    <t>ChromePath</t>
+  </si>
+  <si>
+    <t>ChromeDriverPath</t>
+  </si>
+  <si>
+    <t>EdgePath</t>
+  </si>
+  <si>
+    <t>EdgeDriverPath</t>
+  </si>
+  <si>
+    <t>BrowserOptions</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>http://www.sg2.findhere.org:8044/wd/hub</t>
+  </si>
+  <si>
+    <t>D:\Downloads\My Files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>D:\Downloads\My Files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
+  </si>
+  <si>
+    <t>C:\WebDrivers\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": true
+}</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222
+}</t>
   </si>
 </sst>
 </file>
@@ -160,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -172,6 +247,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -198,33 +279,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -233,6 +287,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,6 +318,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -257,22 +348,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,21 +394,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -309,36 +408,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -350,13 +425,121 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF212121"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF212121"/>
-        <bgColor rgb="FF333300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -367,181 +550,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +641,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,24 +695,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,15 +715,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,18 +736,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -688,158 +763,167 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,62 +1278,62 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="3" width="33.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="5.57407407407407" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1268,63 +1352,63 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1343,135 +1427,135 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="11.287037037037" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1493,53 +1577,53 @@
       <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1554,154 +1638,154 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1713,4 +1797,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>Case ID</t>
   </si>
@@ -192,10 +192,10 @@
     <t>http://www.sg2.findhere.org:8044/wd/hub</t>
   </si>
   <si>
-    <t>D:\Downloads\My Files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>D:\Downloads\My Files\chromedriver-win64\chromedriver.exe</t>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
@@ -216,12 +216,6 @@
     <t>SIT</t>
   </si>
   <si>
-    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
-  </si>
-  <si>
     <t>{
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
@@ -235,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -279,6 +273,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -287,8 +348,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +388,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -317,103 +395,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -436,19 +430,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,163 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,17 +639,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,7 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +664,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,57 +715,31 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -766,127 +760,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1269,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1349,7 +1343,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1424,7 +1418,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1574,7 +1568,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1639,7 +1633,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1805,7 +1799,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1894,10 +1888,10 @@
         <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>59</v>
@@ -1906,7 +1900,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Case ID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
   <si>
     <t>open_url</t>
@@ -231,8 +234,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -274,6 +277,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -289,7 +390,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -297,93 +398,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,20 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -430,13 +433,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,163 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,11 +644,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,7 +655,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +714,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -697,49 +739,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -760,131 +763,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -912,6 +915,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,7 +1284,7 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1310,7 +1317,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1327,7 +1334,7 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1343,7 +1350,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1415,13 +1422,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
@@ -1429,9 +1436,10 @@
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1458,11 @@
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1460,14 +1471,15 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1475,15 +1487,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1491,17 +1504,18 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1509,15 +1523,16 @@
         <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1525,17 +1540,18 @@
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1544,12 +1560,13 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1587,10 +1604,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1598,13 +1615,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1612,13 +1629,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1648,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1665,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1679,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1693,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1707,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1721,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1735,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:4">
@@ -1749,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:4">
@@ -1763,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
@@ -1777,10 +1794,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1815,7 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1818,89 +1835,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Case ID</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Value</t>
@@ -233,8 +236,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -277,7 +280,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,91 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,29 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -433,13 +436,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,43 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,37 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,79 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,11 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,15 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -716,6 +716,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -724,25 +742,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -763,131 +766,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -920,10 +923,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1284,7 +1283,7 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1317,7 +1316,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1334,7 +1333,7 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1424,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1477,7 +1476,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
@@ -1494,7 +1493,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -1513,7 +1512,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -1530,7 +1529,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -1549,7 +1548,7 @@
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -1566,7 +1565,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1647,20 +1646,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:4">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1673,8 +1673,11 @@
       <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1684,11 +1687,12 @@
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1698,11 +1702,12 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1712,11 +1717,12 @@
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1726,11 +1732,12 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1740,11 +1747,12 @@
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1754,11 +1762,12 @@
       <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1768,11 +1777,12 @@
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1782,11 +1792,12 @@
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1796,14 +1807,15 @@
       <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1835,89 +1847,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Case ID</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Actions</t>
   </si>
   <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>Screenshot</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>SearchBox</t>
-  </si>
-  <si>
-    <t>highlight_element</t>
   </si>
   <si>
     <t>send_keys</t>
@@ -235,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -286,6 +286,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -294,24 +369,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,67 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -392,24 +401,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +646,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -662,8 +695,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -699,21 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -722,30 +742,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -766,131 +766,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -921,8 +921,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1283,7 +1287,7 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="10" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1316,7 +1320,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1333,7 +1337,7 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1421,24 +1425,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10"/>
+    <col min="6" max="6" width="9.28571428571429" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1454,14 +1459,17 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1470,15 +1478,16 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1486,16 +1495,21 @@
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1503,73 +1517,43 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
       <formula1>Locators!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1614,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>34</v>
@@ -1648,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1685,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
@@ -1730,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
@@ -1775,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Case ID</t>
   </si>
@@ -81,9 +81,15 @@
     <t>Actions</t>
   </si>
   <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>Screenshot</t>
   </si>
   <si>
+    <t>Wait</t>
+  </si>
+  <si>
     <t>open_url</t>
   </si>
   <si>
@@ -93,9 +99,6 @@
     <t>SearchBox</t>
   </si>
   <si>
-    <t>highlight_element</t>
-  </si>
-  <si>
     <t>send_keys</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Value</t>
@@ -229,9 +235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -274,9 +280,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,6 +346,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -296,68 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -373,41 +402,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -430,19 +436,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,163 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,35 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,6 +656,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,6 +693,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,15 +715,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,10 +733,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -760,131 +766,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -912,6 +918,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,7 +1287,7 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1310,7 +1320,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1327,7 +1337,7 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1343,7 +1353,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1415,23 +1425,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+    <row r="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1447,11 +1459,17 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1460,14 +1478,16 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1475,15 +1495,21 @@
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1491,69 +1517,43 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
       <formula1>Locators!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1587,10 +1587,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1630,34 +1630,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:4">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1665,13 +1669,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1679,13 +1684,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1693,13 +1699,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1707,13 +1714,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1721,13 +1729,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1735,13 +1744,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1749,13 +1759,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1763,13 +1774,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1777,16 +1789,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1798,7 +1811,7 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1818,89 +1831,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Case ID</t>
   </si>
@@ -235,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +290,76 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,20 +372,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -324,17 +386,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,75 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -436,13 +436,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,169 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,15 +646,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -672,8 +687,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +725,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -703,194 +742,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -925,10 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,15 +1275,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="33.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="5.57407407407407" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1320,7 +1316,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1337,7 +1333,7 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1350,22 +1346,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1377,11 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1398,8 +1397,11 @@
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1414,6 +1416,9 @@
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1425,25 +1430,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="9.28703703703704" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.287037037037" style="9" customWidth="1"/>
     <col min="8" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:8">
+    <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1468,8 +1473,11 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:8">
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1486,8 +1494,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:8">
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1508,8 +1519,11 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:8">
+      <c r="I3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1530,8 +1544,11 @@
         <v>7</v>
       </c>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:8">
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1549,6 +1566,9 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12">
         <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1571,11 +1591,11 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1633,15 +1653,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="23.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1781,7 +1801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" ht="16.8" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1815,21 +1835,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5555555555556" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1858,7 +1878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +1907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="86.4" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9144" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
     <sheet name="WebEnvironments" sheetId="6" r:id="rId6"/>
+    <sheet name="CustomActions" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>Case ID</t>
   </si>
@@ -54,6 +55,9 @@
     <t>Search for frontend development</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Step ID</t>
   </si>
   <si>
@@ -117,6 +121,9 @@
     <t>expected_title</t>
   </si>
   <si>
+    <t>non_element_action</t>
+  </si>
+  <si>
     <t>Locator Type</t>
   </si>
   <si>
@@ -198,10 +205,10 @@
     <t>http://www.sg2.findhere.org:8044/wd/hub</t>
   </si>
   <si>
-    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+    <t>D:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>D:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
@@ -222,6 +229,12 @@
     <t>SIT</t>
   </si>
   <si>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
     <t>{
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
@@ -229,18 +242,94 @@
   "remote-debugging-port": 9222
 }</t>
   </si>
+  <si>
+    <t>Action Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Python Code</t>
+  </si>
+  <si>
+    <t>element_based_action</t>
+  </si>
+  <si>
+    <t>An action that requires an element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">def execute(element, web_actions, *args, **kwargs):
+    web_actions.click(element)
+    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...
+    return True</t>
+    </r>
+  </si>
+  <si>
+    <t>An action that doesn't require an element</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def execute(web_actions, *args, **kwargs):
+    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行不需要特定元素的操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    web_actions.wait(60)
+    return True</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +369,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -294,16 +376,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,6 +414,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -323,6 +443,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -331,11 +466,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,6 +482,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -355,29 +497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -386,33 +505,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -436,19 +531,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,163 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,45 +736,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,11 +779,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,151 +828,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1370,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1331,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>8</v>
@@ -1366,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -1389,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -1409,13 +1504,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -1430,13 +1525,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11.712962962963" customWidth="1"/>
     <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
@@ -1450,28 +1545,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1479,17 +1574,17 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
@@ -1500,19 +1595,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>7</v>
@@ -1525,16 +1620,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="12" t="s">
@@ -1550,17 +1645,17 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1571,9 +1666,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" ht="16.8" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6">
       <formula1>Locators!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,44 +1715,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1669,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1689,11 +1803,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1704,11 +1818,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -1719,11 +1833,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1734,11 +1848,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -1749,11 +1863,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
@@ -1764,11 +1878,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
@@ -1779,11 +1893,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
@@ -1794,11 +1908,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="16.8" spans="1:5">
@@ -1809,11 +1923,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1946,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1851,89 +1965,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="100.8" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="86.4" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1944,4 +2058,60 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="16378" width="9.11111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="57.6" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,8 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    web_actions.wait(60)
+    web_actions.wait(10)
+    print("Hello world.")
     return True</t>
     </r>
   </si>
@@ -324,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -368,6 +369,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -376,7 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,6 +400,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -398,112 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -531,31 +532,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,91 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,31 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,69 +737,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +767,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -837,10 +823,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -861,131 +862,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -995,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1373,25 +1377,25 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="3" width="33.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="5.57407407407407" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1399,36 +1403,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1447,72 +1451,72 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1528,38 +1532,38 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="15.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="9.28703703703704" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.287037037037" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
+    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1568,120 +1572,120 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:9">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="15.75" spans="1:9">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1705,53 +1709,53 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1770,163 +1774,163 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="23.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1949,21 +1953,21 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="86.4" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -2066,18 +2070,18 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.552380952381" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="16378" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.552380952381" style="1" customWidth="1"/>
+    <col min="4" max="16378" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>70</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -2099,14 +2103,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="57.6" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>77</v>
       </c>
     </row>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    web_actions.wait(10)
+    web_actions.wait(0.1)
     print("Hello world.")
     return True</t>
     </r>
@@ -325,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -369,6 +369,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -377,81 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -460,8 +460,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,31 +491,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,25 +532,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,157 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,17 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,25 +762,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,7 +795,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,8 +803,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,7 +841,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -862,131 +862,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -996,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1373,8 +1370,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1382,20 +1379,20 @@
     <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
     <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1403,36 +1400,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1461,62 +1458,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1542,28 +1539,28 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11"/>
+    <col min="6" max="6" width="9.28571428571429" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1572,120 +1569,120 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1718,44 +1715,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1783,154 +1780,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2069,7 +2066,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2110,7 +2107,7 @@
       <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
     </row>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>Case ID</t>
   </si>
@@ -67,22 +67,19 @@
     <t>Module Name</t>
   </si>
   <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
     <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>url,search_term,expected_title</t>
-  </si>
-  <si>
-    <t>Element Name</t>
-  </si>
-  <si>
-    <t>Actions</t>
   </si>
   <si>
     <t>Highlight</t>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">def execute(web_actions, *args, **kwargs):
     # </t>
     </r>
@@ -325,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -370,12 +373,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -383,8 +416,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,106 +501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -532,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,26 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -772,6 +755,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,21 +808,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -838,10 +821,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -862,127 +865,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,7 +1373,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1442,22 +1445,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
     <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1471,13 +1473,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1485,19 +1484,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1505,15 +1501,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1552,22 +1545,22 @@
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -1575,17 +1568,17 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
@@ -1596,19 +1589,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>7</v>
@@ -1621,16 +1614,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="12" t="s">
@@ -1646,17 +1639,17 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1669,14 +1662,14 @@
     </row>
     <row r="6" ht="15.75" spans="1:9">
       <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="11"/>
@@ -1719,41 +1712,41 @@
         <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1784,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1804,11 +1797,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1819,11 +1812,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -1834,11 +1827,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1849,11 +1842,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -1864,11 +1857,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
@@ -1879,11 +1872,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
@@ -1894,11 +1887,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
@@ -1909,11 +1902,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -1924,11 +1917,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1966,89 +1959,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2080,35 +2073,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <t>click</t>
   </si>
   <si>
-    <t>title_should_contains</t>
+    <t>verify_title_contains</t>
   </si>
   <si>
     <t>expected_title</t>
@@ -328,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -373,9 +373,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,15 +416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +432,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -416,33 +478,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,21 +502,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -480,35 +509,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,181 +535,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,17 +744,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,8 +794,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -802,7 +807,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,30 +841,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -865,127 +865,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,7 +1447,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1521,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C2 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2023,7 +2023,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>59</v>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Case ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Descriptions</t>
   </si>
   <si>
@@ -37,7 +34,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>TC001</t>
+    <t>Baidu_Search1</t>
   </si>
   <si>
     <t>Search for software testing</t>
@@ -49,7 +46,7 @@
     <t>tag1</t>
   </si>
   <si>
-    <t>TC002</t>
+    <t>Baidu_Search2</t>
   </si>
   <si>
     <t>Search for frontend development</t>
@@ -328,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -373,23 +370,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,37 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -439,9 +461,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,14 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -470,14 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -486,29 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,13 +532,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,31 +580,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,49 +682,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,79 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,24 +737,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,17 +773,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -827,6 +795,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,10 +818,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -865,131 +862,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1005,6 +1002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1371,21 +1371,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="6.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="5.57142857142857" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1395,45 +1394,36 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1448,12 +1438,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
     <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="19.4285714285714" customWidth="1"/>
@@ -1464,50 +1454,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1511,7 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1532,151 +1522,151 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
+    <col min="6" max="6" width="9.28571428571429" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="6" t="s">
-        <v>7</v>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1709,44 +1699,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1760,13 +1750,14 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
@@ -1777,151 +1768,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
-        <v>43</v>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8" t="s">
-        <v>44</v>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>42</v>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
-        <v>47</v>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1931,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C2 C3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1959,89 +1950,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2073,35 +2064,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+  <si>
+    <t>Suite</t>
+  </si>
   <si>
     <t>Case ID</t>
   </si>
@@ -34,6 +37,9 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>Search_case1</t>
+  </si>
+  <si>
     <t>Baidu_Search1</t>
   </si>
   <si>
@@ -46,15 +52,15 @@
     <t>tag1</t>
   </si>
   <si>
+    <t>Search_case2</t>
+  </si>
+  <si>
     <t>Baidu_Search2</t>
   </si>
   <si>
     <t>Search for frontend development</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Step ID</t>
   </si>
   <si>
@@ -212,6 +218,7 @@
   </si>
   <si>
     <t>{
+  "start-maximized": true,
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
@@ -230,6 +237,7 @@
   </si>
   <si>
     <t>{
+  "start-maximized": true,
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
@@ -325,8 +333,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -376,6 +384,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -384,13 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -407,6 +476,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -416,23 +492,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,65 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -532,187 +540,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,6 +749,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -752,6 +810,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,69 +846,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -862,131 +870,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,9 +1027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,20 +1376,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:4">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1394,36 +1399,45 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1451,53 +1465,53 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1529,144 +1543,144 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1699,44 +1713,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1764,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1765,154 +1779,154 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1945,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1950,89 +1964,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2064,35 +2078,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -378,21 +378,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,13 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -421,37 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -460,56 +499,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,187 +540,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,30 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -784,6 +760,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,15 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -842,14 +818,38 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -870,127 +870,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1378,7 +1378,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1525,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1636,7 +1636,9 @@
       <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
       <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1657,9 +1659,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="7" t="s">
         <v>8</v>
       </c>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
     <sheet name="WebEnvironments" sheetId="6" r:id="rId6"/>
-    <sheet name="CustomActions" sheetId="7" r:id="rId7"/>
+    <sheet name="EnvVariables" sheetId="8" r:id="rId7"/>
+    <sheet name="CustomActions" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Suite</t>
   </si>
@@ -151,7 +152,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>http://www.baidu.com</t>
+    <t>${url}</t>
   </si>
   <si>
     <t>TC001功能测试</t>
@@ -243,6 +244,15 @@
   "disable-gpu": true,
   "remote-debugging-port": 9222
 }</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Variable Value</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -333,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -355,11 +365,6 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -373,29 +378,13 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -406,8 +395,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,8 +470,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,22 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -467,19 +501,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,23 +516,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,181 +550,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,6 +759,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -764,11 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,21 +805,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,8 +827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,15 +851,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -867,134 +877,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1008,16 +1018,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,7 +1047,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,20 +1406,20 @@
   <cols>
     <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1407,36 +1427,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1464,53 +1484,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1525,7 +1545,7 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1536,28 +1556,28 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="11"/>
+    <col min="6" max="6" width="9.28571428571429" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1566,120 +1586,120 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="7" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1712,44 +1732,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1764,8 +1784,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1778,162 +1798,158 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="E5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2065,6 +2081,67 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="5" customWidth="1"/>
+    <col min="4" max="16377" width="9.11428571428571" style="5" customWidth="1"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2078,24 +2155,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2103,10 +2180,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -388,10 +388,101 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,17 +494,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,97 +517,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -550,13 +550,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,169 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +755,71 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,47 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -832,179 +856,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1018,13 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1046,7 +1040,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,20 +1399,20 @@
   <cols>
     <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1427,36 +1420,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1484,53 +1477,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1545,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1556,28 +1549,28 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9" style="15"/>
+    <col min="6" max="6" width="9.28571428571429" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1586,120 +1579,120 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1732,44 +1725,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1784,7 +1777,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1798,154 +1791,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2086,14 +2079,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" style="5" customWidth="1"/>
-    <col min="4" max="16377" width="9.11428571428571" style="5" customWidth="1"/>
-    <col min="16378" max="16384" width="9.11428571428571" style="6"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="16377" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -2104,25 +2097,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>72</v>
       </c>
     </row>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Suite</t>
   </si>
@@ -101,6 +101,12 @@
     <t>url</t>
   </si>
   <si>
+    <t>modify_server_side_cookie</t>
+  </si>
+  <si>
+    <t>url,intercept_url_pattern,cookie</t>
+  </si>
+  <si>
     <t>SearchBox</t>
   </si>
   <si>
@@ -155,13 +161,31 @@
     <t>${url}</t>
   </si>
   <si>
+    <t>intercept_url_pattern</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"name":"H_PS_PSSID","value":"111222333"}</t>
+  </si>
+  <si>
     <t>TC001功能测试</t>
   </si>
   <si>
     <t>百度搜索</t>
   </si>
   <si>
+    <t>{"name":"H_PS_PSSID","value":"444555666"}</t>
+  </si>
+  <si>
     <t>TC001性能测试</t>
+  </si>
+  <si>
+    <t>{"name":"H_PS_PSSID","value":"777888999"}</t>
   </si>
   <si>
     <t>TC002自动化测试</t>
@@ -223,7 +247,7 @@
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
-  "remote-debugging-port": 9222,
+  "remote-debugging-port": "9222",
   "headless": true
 }</t>
   </si>
@@ -242,7 +266,7 @@
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
-  "remote-debugging-port": 9222
+  "remote-debugging-port": "9222"
 }</t>
   </si>
   <si>
@@ -252,7 +276,7 @@
     <t>Variable Value</t>
   </si>
   <si>
-    <t>http://www.baidu.com</t>
+    <t>https://www.baidu.com/</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -344,9 +368,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -389,7 +413,98 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +518,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,68 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -486,43 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -550,12 +574,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,13 +694,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,151 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,36 +779,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,15 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -851,6 +836,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -859,7 +883,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -880,127 +904,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,19 +1560,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="30.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" style="12" customWidth="1"/>
     <col min="7" max="7" width="11.2857142857143" style="12" customWidth="1"/>
     <col min="8" max="8" width="9" style="5"/>
@@ -1611,20 +1635,18 @@
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1637,21 +1659,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="9"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1663,21 +1683,27 @@
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
       <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:9">
+    <row r="6" ht="15.75" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1714,9 @@
       <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1696,9 +1724,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" ht="15.75" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7">
       <formula1>Locators!$B$2:$B$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1732,10 +1779,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1743,13 +1790,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1757,13 +1804,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1775,19 +1822,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="10.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="42.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1795,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1819,7 +1866,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1830,11 +1877,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="11" t="s">
-        <v>44</v>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -1845,11 +1892,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1857,14 +1906,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>43</v>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -1872,14 +1921,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
@@ -1890,56 +1939,150 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:5">
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2097,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1973,89 +2116,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2217,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2088,41 +2231,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com/" tooltip="https://www.baidu.com/"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.baidu.com/" tooltip="https://www.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2148,35 +2291,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>Suite</t>
   </si>
@@ -101,10 +101,10 @@
     <t>url</t>
   </si>
   <si>
-    <t>modify_server_side_cookie</t>
-  </si>
-  <si>
-    <t>url,intercept_url_pattern,cookie</t>
+    <t>set_cookie</t>
+  </si>
+  <si>
+    <t>baidu_cookie</t>
   </si>
   <si>
     <t>SearchBox</t>
@@ -161,16 +161,14 @@
     <t>${url}</t>
   </si>
   <si>
-    <t>intercept_url_pattern</t>
-  </si>
-  <si>
-    <t>cookie</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
-    <t>{"name":"H_PS_PSSID","value":"111222333"}</t>
+    <t>{
+  "name": "H_PS_PSSID",
+  "value": "111222333",
+  "domain": ".baidu.com"
+}</t>
   </si>
   <si>
     <t>TC001功能测试</t>
@@ -179,13 +177,21 @@
     <t>百度搜索</t>
   </si>
   <si>
-    <t>{"name":"H_PS_PSSID","value":"444555666"}</t>
+    <t>{
+  "name": "H_PS_PSSID",
+  "value": "444555666",
+  "domain": ".baidu.com"
+}</t>
   </si>
   <si>
     <t>TC001性能测试</t>
   </si>
   <si>
-    <t>{"name":"H_PS_PSSID","value":"777888999"}</t>
+    <t>{
+  "name": "H_PS_PSSID",
+  "value": "777888999",
+  "domain": ".baidu.com"
+}</t>
   </si>
   <si>
     <t>TC002自动化测试</t>
@@ -367,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -411,6 +417,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,134 +554,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -574,19 +580,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,163 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,20 +791,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +809,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,7 +841,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,161 +878,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1057,6 +1063,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1560,10 +1569,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1573,12 +1582,13 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="30.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="13" customWidth="1"/>
     <col min="8" max="8" width="9" style="5"/>
+    <col min="10" max="10" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="1" ht="15.75" customHeight="1" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1606,8 +1616,11 @@
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:9">
+      <c r="J1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1622,13 +1635,14 @@
         <v>25</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:9">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1643,15 +1657,16 @@
         <v>27</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:9">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1667,16 +1682,17 @@
       <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:9">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1690,20 +1706,21 @@
         <v>32</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:9">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:10">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1718,13 +1735,14 @@
         <v>34</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:9">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1737,11 +1755,12 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="J7" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1822,10 +1841,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1869,7 +1888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" ht="63.75" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1877,11 +1896,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
-        <v>45</v>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -1892,13 +1913,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -1909,11 +1928,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="11" t="s">
-        <v>50</v>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -1921,17 +1940,17 @@
         <v>6</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="63.75" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1939,11 +1958,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
@@ -1954,11 +1975,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
+      <c r="E8" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
@@ -1969,43 +1990,43 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="63.75" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:5">
@@ -2016,14 +2037,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -2031,58 +2052,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2116,89 +2090,89 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2231,35 +2205,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2291,24 +2265,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2316,10 +2290,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="WebEnvironments" sheetId="6" r:id="rId6"/>
     <sheet name="EnvVariables" sheetId="8" r:id="rId7"/>
     <sheet name="CustomActions" sheetId="7" r:id="rId8"/>
+    <sheet name="DBConfigs" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>Suite</t>
   </si>
@@ -367,16 +368,82 @@
     return True</t>
     </r>
   </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>db_name1</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>vhuang1</t>
+  </si>
+  <si>
+    <t>Apj.com1</t>
+  </si>
+  <si>
+    <t>10.191.111.77</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>db_name2</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>uat_user</t>
+  </si>
+  <si>
+    <t>uat_password</t>
+  </si>
+  <si>
+    <t>uat_host</t>
+  </si>
+  <si>
+    <t>uat_service_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -399,6 +466,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -408,27 +480,8 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,8 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +570,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +585,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +620,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -580,187 +647,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,9 +858,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,6 +915,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -875,21 +953,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -907,134 +974,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1109,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1049,16 +1125,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1432,20 +1508,20 @@
   <cols>
     <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1453,36 +1529,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1510,53 +1586,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1571,7 +1647,7 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1582,29 +1658,29 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="30.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5"/>
+    <col min="6" max="6" width="9.28571428571429" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9" style="8"/>
     <col min="10" max="10" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1613,154 +1689,154 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14">
+      <c r="F3" s="11"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" ht="15.75" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1791,44 +1867,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1857,205 +1933,205 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" ht="63.75" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2076,19 +2152,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2117,61 +2193,61 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="120" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="5" customFormat="1" ht="120" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="4" t="b">
+      <c r="C2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="5" customFormat="1" ht="105" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2196,14 +2272,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="16377" width="9.11428571428571" style="1" customWidth="1"/>
-    <col min="16378" max="16384" width="9.11428571428571" style="5"/>
+    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="5" customWidth="1"/>
+    <col min="4" max="16377" width="9.11428571428571" style="5" customWidth="1"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2214,25 +2290,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2257,13 +2333,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.552380952381" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.552380952381" style="1" customWidth="1"/>
-    <col min="4" max="16378" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.552380952381" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.552380952381" style="5" customWidth="1"/>
+    <col min="4" max="16378" width="9.11428571428571" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2274,26 +2350,205 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
+    <row r="2" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.14285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16382" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="9.11428571428571" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5432</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5432</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1521</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1521</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_test_cases.xlsx
+++ b/test_cases/web_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>Suite</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>TC002自动化测试</t>
-  </si>
-  <si>
-    <t>百度2</t>
   </si>
   <si>
     <t>Environment</t>
@@ -440,9 +437,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -485,30 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,11 +496,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,29 +580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,9 +595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,6 +611,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,13 +644,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,169 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,11 +855,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,6 +882,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,191 +942,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,9 +1112,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1131,9 +1125,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1148,9 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1508,20 +1496,20 @@
   <cols>
     <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="33.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1529,36 +1517,36 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1586,53 +1574,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1658,29 +1646,29 @@
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="30.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
+    <col min="6" max="6" width="9.28571428571429" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
     <col min="10" max="10" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1689,154 +1677,154 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="12" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="12" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" ht="15.75" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="12" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1867,44 +1855,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1919,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1933,206 +1921,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" ht="63.75" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15" t="s">
-        <v>54</v>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2152,103 +2140,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.3333333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="120" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="120" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="7" t="b">
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="105" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2272,44 +2260,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.7142857142857" style="5" customWidth="1"/>
-    <col min="4" max="16377" width="9.11428571428571" style="5" customWidth="1"/>
-    <col min="16378" max="16384" width="9.11428571428571" style="8"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="16377" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="9.11428571428571" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>78</v>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2333,43 +2321,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.552380952381" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.6666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="70.552380952381" style="5" customWidth="1"/>
-    <col min="4" max="16378" width="9.11428571428571" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.552380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.552380952381" style="1" customWidth="1"/>
+    <col min="4" max="16378" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="60" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="75" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2371,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2405,114 +2393,114 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>5432</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="G3" s="3">
         <v>5432</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G4" s="3">
         <v>1521</v>
@@ -2520,27 +2508,27 @@
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G5" s="3">
         <v>1521</v>
@@ -2548,7 +2536,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
